--- a/02_Proyecto/11. Métricas/01_CuadernoRegistroTiempos.xlsx
+++ b/02_Proyecto/11. Métricas/01_CuadernoRegistroTiempos.xlsx
@@ -1,43 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uespe-my.sharepoint.com/personal/aeramos2_espe_edu_ec/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ALMACENAMIENTO\SEPTIMO\ASEG CALIDAD\proyecto\2567_G7_ACSW\02_Proyecto\12. Métricas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4CAA196-7BD5-40E4-9682-834A66006522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6E0FEC-16A3-4B46-B300-E02A8C652C3D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CC0A6D72-FFD6-4CAB-A183-D90713B92A80}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1" xr2:uid="{CC0A6D72-FFD6-4CAB-A183-D90713B92A80}"/>
   </bookViews>
   <sheets>
     <sheet name="CRT" sheetId="1" r:id="rId1"/>
     <sheet name="Diccionario de Actividades" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="90">
   <si>
     <t>CUADERNO DE REGISTRO DE TIEMPOS Nª 1</t>
   </si>
@@ -304,13 +293,16 @@
   </si>
   <si>
     <t>El sistema permitira al usuario ingresar los datos para reservar una habitación: Tipo de habitación, fecha de entrada, fecha de salida, preferencias, cantidad de niños entre otros. Se visualizara el resumen de la reserva al final.</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -376,7 +368,12 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Book Antiqua"/>
-      <charset val="1"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -399,7 +396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -663,43 +660,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -718,70 +837,154 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{DE589106-D1E0-4EAB-BBFC-48312B1400CE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1098,774 +1301,929 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E0AF77-4686-4E0B-BFB3-0584C3DB8DC7}">
-  <dimension ref="B2:J33"/>
+  <dimension ref="A2:K32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="57" style="1" customWidth="1"/>
-    <col min="9" max="10" width="3.7109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="2.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="8" customWidth="1"/>
+    <col min="3" max="4" width="9.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="8" customWidth="1"/>
+    <col min="6" max="7" width="9.28515625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="57" style="8" customWidth="1"/>
+    <col min="9" max="10" width="3.7109375" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="9.28515625" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="13.5">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="24.75" customHeight="1">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
-    </row>
-    <row r="4" spans="2:10" ht="15">
-      <c r="B4" s="6" t="s">
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39"/>
-    </row>
-    <row r="5" spans="2:10" ht="14.45" thickBot="1"/>
-    <row r="6" spans="2:10" s="2" customFormat="1" ht="13.5">
-      <c r="B6" s="10" t="s">
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
+    </row>
+    <row r="5" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:11" s="22" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="14.25">
-      <c r="B7" s="24">
+    <row r="7" spans="1:11" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="26">
         <v>45590</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="27">
         <v>0.625</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="28">
+        <v>60</v>
+      </c>
+      <c r="F7" s="29">
+        <f>(6*60)-E7</f>
+        <v>300</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="31">
         <v>1</v>
       </c>
-      <c r="F7" s="22">
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="26">
+        <v>45593</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E8" s="32">
+        <v>10</v>
+      </c>
+      <c r="F8" s="33">
+        <f>+(3*60)-E8</f>
+        <v>170</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>3</v>
+      </c>
+      <c r="B9" s="26">
+        <v>45594</v>
+      </c>
+      <c r="C9" s="27">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D9" s="27">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E9" s="32">
+        <v>50</v>
+      </c>
+      <c r="F9" s="33">
+        <f>+(3*60)-E9</f>
+        <v>130</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>4</v>
+      </c>
+      <c r="B10" s="26">
+        <v>45595</v>
+      </c>
+      <c r="C10" s="27">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D10" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="32">
+        <v>30</v>
+      </c>
+      <c r="F10" s="33">
+        <f>+(4*60)-E10</f>
+        <v>210</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="39">
+        <v>2</v>
+      </c>
+      <c r="K10" s="40"/>
+    </row>
+    <row r="11" spans="1:11" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>5</v>
+      </c>
+      <c r="B11" s="41">
+        <v>45597</v>
+      </c>
+      <c r="C11" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D11" s="42">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E11" s="32">
+        <v>35</v>
+      </c>
+      <c r="F11" s="33">
+        <f>+(6*60)-E11</f>
+        <v>325</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="39">
+        <v>2</v>
+      </c>
+      <c r="K11" s="43"/>
+    </row>
+    <row r="12" spans="1:11" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
         <v>6</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="B12" s="41">
+        <v>45600</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="27">
+        <v>0.625</v>
+      </c>
+      <c r="E12" s="32">
+        <v>30</v>
+      </c>
+      <c r="F12" s="33">
+        <f>+(3*60)-E12</f>
+        <v>150</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="39">
+        <v>2</v>
+      </c>
+      <c r="K12" s="43"/>
+    </row>
+    <row r="13" spans="1:11" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>7</v>
+      </c>
+      <c r="B13" s="41">
+        <v>45601</v>
+      </c>
+      <c r="C13" s="27">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D13" s="27">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E13" s="32">
+        <v>24</v>
+      </c>
+      <c r="F13" s="33">
+        <f>+(3*60)-E13</f>
+        <v>156</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="39">
+        <v>2</v>
+      </c>
+      <c r="K13" s="43"/>
+    </row>
+    <row r="14" spans="1:11" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>8</v>
+      </c>
+      <c r="B14" s="41">
+        <v>45602</v>
+      </c>
+      <c r="C14" s="27">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D14" s="27">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E14" s="44">
+        <v>34</v>
+      </c>
+      <c r="F14" s="33">
+        <f>+(2*60)-E14</f>
+        <v>86</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="39">
+        <v>2</v>
+      </c>
+      <c r="K14" s="43"/>
+    </row>
+    <row r="15" spans="1:11" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>9</v>
+      </c>
+      <c r="B15" s="41">
+        <v>45603</v>
+      </c>
+      <c r="C15" s="27">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D15" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="E15" s="44">
+        <v>67</v>
+      </c>
+      <c r="F15" s="33">
+        <f>+(2*60)-E15</f>
+        <v>53</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="46">
+        <v>1</v>
+      </c>
+      <c r="K15" s="43"/>
+    </row>
+    <row r="16" spans="1:11" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>10</v>
+      </c>
+      <c r="B16" s="41">
+        <v>45604</v>
+      </c>
+      <c r="C16" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D16" s="42">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E16" s="32">
+        <v>45</v>
+      </c>
+      <c r="F16" s="33">
+        <f>+(6*60)-E16</f>
+        <v>315</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="46">
+        <v>2</v>
+      </c>
+      <c r="K16" s="43"/>
+    </row>
+    <row r="17" spans="1:11" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>11</v>
+      </c>
+      <c r="B17" s="47">
+        <v>45607</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="27">
+        <v>0.625</v>
+      </c>
+      <c r="E17" s="32">
+        <v>78</v>
+      </c>
+      <c r="F17" s="33">
+        <f>+(3*60)-E17</f>
+        <v>102</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="39">
+        <v>1</v>
+      </c>
+      <c r="K17" s="43"/>
+    </row>
+    <row r="18" spans="1:11" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>12</v>
+      </c>
+      <c r="B18" s="47">
+        <v>45608</v>
+      </c>
+      <c r="C18" s="27">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E18" s="32">
+        <v>10</v>
+      </c>
+      <c r="F18" s="33">
+        <f>+(3*60)-E18</f>
+        <v>170</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="39">
+        <v>1</v>
+      </c>
+      <c r="K18" s="43"/>
+    </row>
+    <row r="19" spans="1:11" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>13</v>
+      </c>
+      <c r="B19" s="47">
+        <v>45609</v>
+      </c>
+      <c r="C19" s="27">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D19" s="27">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E19" s="44">
+        <v>35</v>
+      </c>
+      <c r="F19" s="33">
+        <f>+(2*60)-E19</f>
+        <v>85</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="39">
+        <v>1</v>
+      </c>
+      <c r="K19" s="43"/>
+    </row>
+    <row r="20" spans="1:11" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>14</v>
+      </c>
+      <c r="B20" s="47">
+        <v>45609</v>
+      </c>
+      <c r="C20" s="27">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D20" s="38">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E20" s="44">
+        <v>20</v>
+      </c>
+      <c r="F20" s="33">
+        <f>+(2*60)-E20</f>
+        <v>100</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="39">
+        <v>2</v>
+      </c>
+      <c r="K20" s="43"/>
+    </row>
+    <row r="21" spans="1:11" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>15</v>
+      </c>
+      <c r="B21" s="47">
+        <v>45610</v>
+      </c>
+      <c r="C21" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D21" s="42">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E21" s="32">
+        <v>20</v>
+      </c>
+      <c r="F21" s="33">
+        <f>+(6*60)-E21</f>
+        <v>340</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="39">
+        <v>2</v>
+      </c>
+      <c r="K21" s="43"/>
+    </row>
+    <row r="22" spans="1:11" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>16</v>
+      </c>
+      <c r="B22" s="26">
+        <v>45611</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="50">
+        <v>30</v>
+      </c>
+      <c r="F22" s="33">
+        <f>+(5*60)-E22</f>
+        <v>270</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="51">
+        <v>1</v>
+      </c>
+      <c r="K22" s="43"/>
+    </row>
+    <row r="23" spans="1:11" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
         <v>17</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="B23" s="26">
+        <v>45614</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="27">
+        <v>0.625</v>
+      </c>
+      <c r="E23" s="32">
+        <v>45</v>
+      </c>
+      <c r="F23" s="33">
+        <f>+(3*60)-E23</f>
+        <v>135</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="39">
+        <v>1</v>
+      </c>
+      <c r="K23" s="43"/>
+    </row>
+    <row r="24" spans="1:11" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
         <v>18</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="B24" s="26">
+        <v>45615</v>
+      </c>
+      <c r="C24" s="27">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D24" s="27">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E24" s="32">
+        <v>43</v>
+      </c>
+      <c r="F24" s="33">
+        <f>+(3*60)-E24</f>
+        <v>137</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J24" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="24">
-        <v>45593</v>
-      </c>
-      <c r="C8" s="25">
+      <c r="K24" s="43"/>
+    </row>
+    <row r="25" spans="1:11" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>19</v>
+      </c>
+      <c r="B25" s="26">
+        <v>45616</v>
+      </c>
+      <c r="C25" s="27">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D25" s="27">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E25" s="44">
+        <v>34</v>
+      </c>
+      <c r="F25" s="33">
+        <f>+(2*60)-E25</f>
+        <v>86</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="39">
+        <v>2</v>
+      </c>
+      <c r="K25" s="43"/>
+    </row>
+    <row r="26" spans="1:11" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>20</v>
+      </c>
+      <c r="B26" s="26">
+        <v>45617</v>
+      </c>
+      <c r="C26" s="27">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D26" s="38">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E26" s="44">
+        <v>23</v>
+      </c>
+      <c r="F26" s="33">
+        <f t="shared" ref="F26" si="0">+(4*60)-E26</f>
+        <v>217</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="39">
+        <v>2</v>
+      </c>
+      <c r="K26" s="43"/>
+    </row>
+    <row r="27" spans="1:11" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>21</v>
+      </c>
+      <c r="B27" s="26">
+        <v>45618</v>
+      </c>
+      <c r="C27" s="42">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23">
-        <v>3</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="9" t="s">
+      <c r="D27" s="42">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E27" s="32">
+        <v>22</v>
+      </c>
+      <c r="F27" s="33">
+        <f>+(6*60)-E27</f>
+        <v>338</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J27" s="51">
+        <v>1</v>
+      </c>
+      <c r="K27" s="43"/>
+    </row>
+    <row r="28" spans="1:11" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>22</v>
+      </c>
+      <c r="B28" s="26">
+        <v>45618</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="50">
+        <v>12</v>
+      </c>
+      <c r="F28" s="33">
+        <f>+(5*60)-E28</f>
+        <v>288</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="39">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="24">
-        <v>45594</v>
-      </c>
-      <c r="C9" s="25">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D9" s="25">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E9" s="23">
+      <c r="K28" s="43"/>
+    </row>
+    <row r="29" spans="1:11" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>23</v>
+      </c>
+      <c r="B29" s="26">
+        <v>45621</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="50">
+        <v>12</v>
+      </c>
+      <c r="F29" s="33">
+        <f>+(1*60)-E29</f>
+        <v>48</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="39">
         <v>2</v>
       </c>
-      <c r="F9" s="23">
-        <v>7</v>
-      </c>
-      <c r="G9" s="22" t="s">
+      <c r="K29" s="43"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="8">
+        <v>24</v>
+      </c>
+      <c r="B30" s="52">
+        <v>45621</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="53">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E30" s="54">
         <v>22</v>
       </c>
-      <c r="H9" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="9" t="s">
+      <c r="F30" s="55">
+        <f>+(4*60)-E30</f>
+        <v>218</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J30" s="56">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" ht="14.25">
-      <c r="B10" s="24">
-        <v>45595</v>
-      </c>
-      <c r="C10" s="25">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D10" s="27">
-        <v>0.75</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23">
-        <v>4</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="14.25">
-      <c r="B11" s="30">
-        <v>45597</v>
-      </c>
-      <c r="C11" s="31">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D11" s="31">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E11" s="23">
-        <v>1</v>
-      </c>
-      <c r="F11" s="23">
-        <v>6</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="14.25">
-      <c r="B12" s="30">
-        <v>45600</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="25">
-        <v>0.625</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23">
-        <v>3</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="14.25">
-      <c r="B13" s="30">
-        <v>45601</v>
-      </c>
-      <c r="C13" s="25">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D13" s="25">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E13" s="23">
-        <v>1</v>
-      </c>
-      <c r="F13" s="23">
-        <v>3</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="14.25">
-      <c r="B14" s="30">
-        <v>45602</v>
-      </c>
-      <c r="C14" s="25">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D14" s="25">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="23">
-        <v>2</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="14.25">
-      <c r="B15" s="30">
-        <v>45603</v>
-      </c>
-      <c r="C15" s="25">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D15" s="27">
-        <v>0.75</v>
-      </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="23">
-        <v>2</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="14.25">
-      <c r="B16" s="30">
-        <v>45604</v>
-      </c>
-      <c r="C16" s="31">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D16" s="31">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E16" s="23">
-        <v>1</v>
-      </c>
-      <c r="F16" s="23">
-        <v>6</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="14.25">
-      <c r="B17" s="29">
-        <v>45607</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="25">
-        <v>0.625</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23">
-        <v>3</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="14.25">
-      <c r="B18" s="29">
-        <v>45608</v>
-      </c>
-      <c r="C18" s="25">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D18" s="25">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E18" s="23">
-        <v>1</v>
-      </c>
-      <c r="F18" s="23">
-        <v>3</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="14.25">
-      <c r="B19" s="29">
-        <v>45609</v>
-      </c>
-      <c r="C19" s="25">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D19" s="25">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="23">
-        <v>2</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="14.25">
-      <c r="B20" s="29">
-        <v>45609</v>
-      </c>
-      <c r="C20" s="25">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D20" s="27">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="23">
-        <v>2</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="14.25">
-      <c r="B21" s="29">
-        <v>45610</v>
-      </c>
-      <c r="C21" s="31">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D21" s="31">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E21" s="23">
-        <v>1</v>
-      </c>
-      <c r="F21" s="23">
-        <v>6</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="14.25">
-      <c r="B22" s="24">
-        <v>45611</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="34">
-        <v>1</v>
-      </c>
-      <c r="F22" s="22">
-        <v>5</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="14.25">
-      <c r="B23" s="24">
-        <v>45614</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="25">
-        <v>0.625</v>
-      </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23">
-        <v>3</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="14.25">
-      <c r="B24" s="24">
-        <v>45615</v>
-      </c>
-      <c r="C24" s="25">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D24" s="25">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E24" s="23">
-        <v>1</v>
-      </c>
-      <c r="F24" s="23">
-        <v>3</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="14.25">
-      <c r="B25" s="24">
-        <v>45616</v>
-      </c>
-      <c r="C25" s="25">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D25" s="25">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="23">
-        <v>2</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="14.25">
-      <c r="B26" s="24">
-        <v>45617</v>
-      </c>
-      <c r="C26" s="25">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D26" s="27">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="23">
-        <v>2</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="14.25">
-      <c r="B27" s="24">
-        <v>45618</v>
-      </c>
-      <c r="C27" s="31">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D27" s="31">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E27" s="23">
-        <v>1</v>
-      </c>
-      <c r="F27" s="23">
-        <v>6</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="14.25">
-      <c r="B28" s="24">
-        <v>45618</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="34">
-        <v>1</v>
-      </c>
-      <c r="F28" s="22">
-        <v>5</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="14.25">
-      <c r="B29" s="24">
-        <v>45621</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="22">
-        <v>1</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="H29" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="14.25">
-      <c r="B30" s="24">
-        <v>45621</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="31">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E30" s="34">
-        <v>1</v>
-      </c>
-      <c r="F30" s="22">
-        <v>4</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H30" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="13.5"/>
-    <row r="32" spans="2:10" ht="13.5"/>
-    <row r="33" ht="13.5"/>
+      <c r="K30" s="43"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="60">
+        <f>+SUM(F7:F30)</f>
+        <v>4429</v>
+      </c>
+      <c r="K31" s="40"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K32" s="40"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B31:E31"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -1878,275 +2236,275 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD81F57-E281-450D-8BA5-ABE166F8A1E3}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="131.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.15">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="31.15">
-      <c r="A2" s="16"/>
-      <c r="B2" s="42" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.149999999999999" thickBot="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="1:4" ht="18">
-      <c r="A4" s="16"/>
-      <c r="B4" s="18" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="16"/>
-    </row>
-    <row r="5" spans="1:4" ht="20.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="20" t="s">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="6" spans="1:4" ht="20.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="20" t="s">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:4" ht="20.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="20" t="s">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:4" ht="20.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="20" t="s">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="1:4" ht="20.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="20" t="s">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:4" ht="20.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="20" t="s">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" spans="1:4" ht="20.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="20" t="s">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="1:4" ht="20.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="20" t="s">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="1:4" ht="20.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="20" t="s">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" spans="1:4" ht="20.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="20" t="s">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="1:4" ht="20.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="20" t="s">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="1:4" ht="20.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="20" t="s">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="1:4" ht="20.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="20" t="s">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="1:4" ht="20.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="20" t="s">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="1:4" ht="20.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="20" t="s">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" spans="1:4" ht="20.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="20" t="s">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="1:4" ht="20.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="20" t="s">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="16"/>
-    </row>
-    <row r="22" spans="1:4" ht="20.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="20" t="s">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="16"/>
-    </row>
-    <row r="23" spans="1:4" ht="20.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="20" t="s">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="16"/>
-    </row>
-    <row r="24" spans="1:4" ht="20.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="20" t="s">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="16"/>
-    </row>
-    <row r="25" spans="1:4" ht="41.25">
-      <c r="B25" s="20" t="s">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="20.25">
-      <c r="B26" s="20" t="s">
+    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="20.25">
-      <c r="B27" s="20" t="s">
+    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="62.25">
-      <c r="B28" s="20" t="s">
+    <row r="28" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="6" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2159,23 +2517,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1954242f-b78b-43af-8e83-5ba0d2119314" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D51A41D417B25148A7C3BF78BE50B791" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="80f47326d8e4d7e188c4dc0666600e31">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1954242f-b78b-43af-8e83-5ba0d2119314" xmlns:ns4="f74da059-3ed3-4dfd-8238-e917d289bcea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f0f340fb5fad713fe4d63613d37d4fca" ns3:_="" ns4:_="">
     <xsd:import namespace="1954242f-b78b-43af-8e83-5ba0d2119314"/>
@@ -2388,14 +2729,56 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1954242f-b78b-43af-8e83-5ba0d2119314" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92E22CF0-7FC0-4DD0-8152-7CA1B5C58CC6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12DC5FAD-C8CB-4369-9C6B-364731D3D5FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1954242f-b78b-43af-8e83-5ba0d2119314"/>
+    <ds:schemaRef ds:uri="f74da059-3ed3-4dfd-8238-e917d289bcea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F70A6191-A872-4237-B964-B8C8402817E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F70A6191-A872-4237-B964-B8C8402817E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12DC5FAD-C8CB-4369-9C6B-364731D3D5FE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92E22CF0-7FC0-4DD0-8152-7CA1B5C58CC6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1954242f-b78b-43af-8e83-5ba0d2119314"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>